--- a/biology/Botanique/Hemiphylacus/Hemiphylacus.xlsx
+++ b/biology/Botanique/Hemiphylacus/Hemiphylacus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Hemiphylacus est un genre de plantes monocotylédones de la famille des Asparagaceae.
-Selon Catalogue of Life                                   (8 juin 2013)[1], World Checklist of Selected Plant Families (WCSP)  (8 juin 2013)[2] et Tropicos                                           (8 juin 2013)[3] :
+Selon Catalogue of Life                                   (8 juin 2013), World Checklist of Selected Plant Families (WCSP)  (8 juin 2013) et Tropicos                                           (8 juin 2013) :
 Hemiphylacus alatostylus L.Hern. (1995)
 Hemiphylacus hintoniorum L.Hern. (1995)
 Hemiphylacus latifolius S.Watson (1883)
 Hemiphylacus mahindae L.Hern. (1995)
 Hemiphylacus novogalicianus L.Hern. (1995)
-Selon NCBI  (17 mai 2024)[4] :
+Selon NCBI  (17 mai 2024) :
 Hemiphylacus alatostylus
 Hemiphylacus hintoniorum
 Hemiphylacus latifolius</t>
